--- a/Diseño_Sismoresistente/EspectrosNEC_guardados/searchResults.xlsx
+++ b/Diseño_Sismoresistente/EspectrosNEC_guardados/searchResults.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -636,7 +636,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>   </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>   </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>   </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
